--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4048709.870444612</v>
+        <v>4046333.243497245</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>128.4680143628633</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -710,13 +710,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.94942429078201</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -868,13 +868,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>91.25507458703777</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>167.8420981406704</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>216.2092575368569</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>67.50735138751236</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>35.33415019398279</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>110.6796476850519</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>136.4319443464774</v>
+        <v>170.9735543575581</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>9.813247732549694</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710082</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>100.781511665774</v>
+        <v>130.1208074460241</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>38.61213096654736</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784678</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>131.4244133395508</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>66.25628701154712</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>11.79076481679217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
-        <v>119.6760079449695</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.58522891595203</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1324.80586733131</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>955.8433503908984</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>826.0776793172992</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656512</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395432</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1711.405707395432</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4395,40 +4395,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>846.306131908167</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1922.533821476953</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>769.5800553833139</v>
+        <v>473.9512097489098</v>
       </c>
       <c r="C4" t="n">
-        <v>600.6438724554071</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1245.057122732731</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1245.057122732731</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>990.3726345268441</v>
+        <v>655.5996745791496</v>
       </c>
       <c r="W4" t="n">
-        <v>990.3726345268441</v>
+        <v>655.5996745791496</v>
       </c>
       <c r="X4" t="n">
-        <v>990.3726345268441</v>
+        <v>655.5996745791496</v>
       </c>
       <c r="Y4" t="n">
-        <v>769.5800553833139</v>
+        <v>655.5996745791496</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1957.346298904866</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.383781964454</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>844.3298307594591</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2343.946138968987</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2343.946138968987</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2343.946138968987</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>2343.946138968987</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y5" t="n">
-        <v>2343.946138968987</v>
+        <v>1202.59552936621</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1946.556931114678</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>86.93784737000593</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1524.648496150203</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1524.648496150203</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1235.53015865404</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1235.53015865404</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W7" t="n">
-        <v>1235.53015865404</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>307.730426513536</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>86.93784737000593</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.021456295685</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="C8" t="n">
-        <v>926.0589393552737</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.760628335619</v>
+        <v>1118.781316225816</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.621296359807</v>
+        <v>1118.781316225816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>314.9273982680228</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>314.9273982680228</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>314.9273982680228</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>167.0143046856297</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>314.9273982680228</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,43 +5048,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745237</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>484.2179484367892</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>484.2179484367892</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F13" t="n">
-        <v>337.3280009388789</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>446.9048623224643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>300.0149148245539</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>132.8188155394338</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5835,13 +5835,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>221.3431781811722</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>221.3431781811722</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,22 +7251,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.063992790046</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075805</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.8421700460951</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>45.44676101130841</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="P6" t="n">
-        <v>255.8421700460944</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,19 +8532,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>280.1079373569279</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>64.74262662649481</v>
+        <v>35.40333084624476</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864867</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>101.6825818796765</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>84.77391660562006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>15.00954930701835</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>213.918890572245</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
-        <v>25.7450400779617</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>55.74112246243956</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642835</v>
@@ -26320,40 +26320,40 @@
         <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900068</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
@@ -26424,22 +26424,22 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732028</v>
+        <v>8117.312426731943</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732</v>
+        <v>8117.312426731956</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731997</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731973</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731925</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26451,7 +26451,7 @@
         <v>8117.312426731997</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-520965.7864133443</v>
+        <v>-520965.7864133446</v>
       </c>
       <c r="C6" t="n">
-        <v>593785.9971625751</v>
+        <v>593785.9971625749</v>
       </c>
       <c r="D6" t="n">
-        <v>593785.9971625751</v>
+        <v>593785.9971625754</v>
       </c>
       <c r="E6" t="n">
-        <v>190421.3158148211</v>
+        <v>190386.5778893849</v>
       </c>
       <c r="F6" t="n">
-        <v>697906.7574393671</v>
+        <v>697872.0195139314</v>
       </c>
       <c r="G6" t="n">
-        <v>697906.757439367</v>
+        <v>697872.0195139316</v>
       </c>
       <c r="H6" t="n">
-        <v>697906.7574393677</v>
+        <v>697872.0195139316</v>
       </c>
       <c r="I6" t="n">
-        <v>697906.7574393672</v>
+        <v>697872.0195139318</v>
       </c>
       <c r="J6" t="n">
-        <v>530301.5796293847</v>
+        <v>530266.8417039486</v>
       </c>
       <c r="K6" t="n">
-        <v>697906.7574393674</v>
+        <v>697872.0195139316</v>
       </c>
       <c r="L6" t="n">
-        <v>697906.7574393674</v>
+        <v>697872.0195139317</v>
       </c>
       <c r="M6" t="n">
-        <v>565299.4637104403</v>
+        <v>565264.7257850044</v>
       </c>
       <c r="N6" t="n">
-        <v>697906.757439367</v>
+        <v>697872.0195139312</v>
       </c>
       <c r="O6" t="n">
-        <v>697906.7574393674</v>
+        <v>697872.0195139316</v>
       </c>
       <c r="P6" t="n">
-        <v>697906.7574393672</v>
+        <v>697872.0195139317</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.223655907778798e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.223655907778798e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.223655907778798e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.223655907778798e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>226.2150272578197</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>313.2885143652716</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.4936214101742</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>84.29554518315763</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>34.83599259160513</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>318.7305872685412</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>131.912670904645</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.98281267668557</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>233.2991563319916</v>
+        <v>198.757546320911</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.6078002903816</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193759</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.181774678116198e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>469.5567819573399</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104064</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,16 +32555,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>531.8166820790245</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33178,10 +33178,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33497,28 +33497,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>764.2478901092629</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>253.8670488165992</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,25 +33971,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>500.7380235181012</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>295.1262901348407</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980274</v>
       </c>
       <c r="P6" t="n">
-        <v>505.5216991696267</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893645</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353216</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707313</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>393.2623022991504</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,28 +37145,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>632.9061780259296</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>127.0294221499325</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,25 +37619,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>366.763616103771</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
